--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R4989e65114104c76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R0870fd8e009c4c2d"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R0870fd8e009c4c2d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R723123f745c8492f"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R723123f745c8492f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R3c024042a6f94213"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R3c024042a6f94213"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R180ccf39fd35485e"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R180ccf39fd35485e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R4fcb8243d50e432c"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R4fcb8243d50e432c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf0ceff883fd64f3c"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf0ceff883fd64f3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Re9bec6ce8aa74303"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Re9bec6ce8aa74303"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R13891a07b7b74ae1"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R13891a07b7b74ae1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R47b944266c6a4e32"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R47b944266c6a4e32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rcddac01f22694d84"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rcddac01f22694d84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R446b2e188af9456d"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>
@@ -34,18 +34,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R446b2e188af9456d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R5da0461b57ee48d2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>
@@ -34,18 +34,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/039_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R5da0461b57ee48d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R3e198607b02d4340"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>
